--- a/Banco Central/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/1/2/1/Ingresos Tributarios 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P210"/>
+  <dimension ref="A1:P211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11552,6 +11555,56 @@
         <v>81271</v>
       </c>
     </row>
+    <row r="211" spans="1:16">
+      <c r="A211" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211">
+        <v>708371</v>
+      </c>
+      <c r="C211">
+        <v>-753534</v>
+      </c>
+      <c r="D211">
+        <v>503731</v>
+      </c>
+      <c r="E211">
+        <v>958174</v>
+      </c>
+      <c r="F211">
+        <v>1763039</v>
+      </c>
+      <c r="G211">
+        <v>2471726</v>
+      </c>
+      <c r="H211">
+        <v>-30265</v>
+      </c>
+      <c r="I211">
+        <v>-678422</v>
+      </c>
+      <c r="J211">
+        <v>181013</v>
+      </c>
+      <c r="K211">
+        <v>47487</v>
+      </c>
+      <c r="L211">
+        <v>133526</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>43768</v>
+      </c>
+      <c r="O211">
+        <v>36752</v>
+      </c>
+      <c r="P211">
+        <v>24779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
